--- a/scripts/deduplicate_project/results/excel/toybox_0_7_5_cppcheck.xlsx
+++ b/scripts/deduplicate_project/results/excel/toybox_0_7_5_cppcheck.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hothost/Documents/git/kconfig_case_studies/scripts/deduplicate_project/results/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AAAD4DFC-E7C8-0245-A2CA-BA2E058AE17C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A57D20EA-44C6-A04B-BC42-C3A326D6B798}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16060" activeTab="1"/>
   </bookViews>
@@ -18,12 +18,13 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId3"/>
+    <pivotCache cacheId="17" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
   <si>
     <t>line</t>
   </si>
@@ -54,7 +55,10 @@
     <t>variability</t>
   </si>
   <si>
-    <t>toys/other/losetup.c</t>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>args.c</t>
   </si>
   <si>
     <t>cppcheck</t>
@@ -66,70 +70,79 @@
     <t xml:space="preserve"> (error) Uninitialized variable</t>
   </si>
   <si>
-    <t>toys/posix/tail.c</t>
+    <t>base64.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (error) Expression 'this.base64.columns&amp;&amp;++*x==this.base64.columns' depends on order of evaluation of side effects</t>
+  </si>
+  <si>
+    <t>blockdev.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (error) Array 'cmds[11]' accessed at index 31, which is out of bounds.</t>
+  </si>
+  <si>
+    <t>bzcat.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (error) Possible null pointer dereference</t>
+  </si>
+  <si>
+    <t>chvt.c</t>
+  </si>
+  <si>
+    <t>cp.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (error) Null pointer dereference</t>
+  </si>
+  <si>
+    <t>date.c</t>
+  </si>
+  <si>
+    <t>hwclock.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (error) Memory pointed to by 's' is freed twice.</t>
+  </si>
+  <si>
+    <t>kill.c</t>
+  </si>
+  <si>
+    <t>lib.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (error) Buffer is accessed out of bounds</t>
+  </si>
+  <si>
+    <t>losetup.c</t>
+  </si>
+  <si>
+    <t>lsm.h</t>
+  </si>
+  <si>
+    <t>main.c</t>
+  </si>
+  <si>
+    <t>netstat.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (error) Resource leak</t>
+  </si>
+  <si>
+    <t>switch_root.c</t>
+  </si>
+  <si>
+    <t>tail.c</t>
   </si>
   <si>
     <t xml:space="preserve"> (error) Memory is allocated but not initialized</t>
   </si>
   <si>
-    <t>toys/other/hwclock.c</t>
-  </si>
-  <si>
-    <t>toys/other/switch_root.c</t>
-  </si>
-  <si>
-    <t>lib/lib.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (error) Buffer is accessed out of bounds</t>
-  </si>
-  <si>
-    <t>toys/posix/uudecode.c</t>
-  </si>
-  <si>
-    <t>./lib/lsm.h</t>
-  </si>
-  <si>
-    <t>toys/posix/date.c</t>
-  </si>
-  <si>
-    <t>toys/other/chvt.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (error) Memory pointed to by 's' is freed twice.</t>
-  </si>
-  <si>
-    <t>toys/other/base64.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (error) Expression 'this.base64.columns&amp;&amp;++*x==this.base64.columns' depends on order of evaluation of side effects</t>
-  </si>
-  <si>
-    <t>lib/lsm.h</t>
-  </si>
-  <si>
-    <t>toys/posix/cmp.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (error) Signed integer overflow for expression '(2147483648)*!(toys.optflags&amp;(1))'.</t>
-  </si>
-  <si>
-    <t>toys/other/vmstat.c</t>
-  </si>
-  <si>
-    <t>lib/args.c</t>
-  </si>
-  <si>
-    <t>toys/net/netstat.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (error) Resource leak</t>
-  </si>
-  <si>
-    <t>toys/other/blockdev.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (error) Array 'cmds[11]' accessed at index 31, which is out of bounds.</t>
+    <t>uudecode.c</t>
+  </si>
+  <si>
+    <t>vmstat.c</t>
   </si>
   <si>
     <t>Count of variability</t>
@@ -698,11 +711,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Wei, Shiyi" refreshedDate="43510.643508912035" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="17">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Wei, Shiyi" refreshedDate="43512.8106275463" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
-  <cacheFields count="7">
+  <cacheFields count="8">
     <cacheField name="line" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="24" maxValue="975"/>
     </cacheField>
@@ -719,13 +732,16 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="num_configs" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="986"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="1000"/>
     </cacheField>
     <cacheField name="variability" numFmtId="0">
       <sharedItems count="2">
         <b v="1"/>
         <b v="0"/>
       </sharedItems>
+    </cacheField>
+    <cacheField name="classification" numFmtId="0">
+      <sharedItems containsBlank="1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -737,167 +753,214 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="20">
   <r>
-    <n v="64"/>
-    <s v="toys/other/losetup.c"/>
+    <n v="309"/>
+    <s v="args.c"/>
     <s v="cppcheck"/>
     <s v="toybox_0_7_5"/>
     <s v=" (error) Uninitialized variable"/>
-    <n v="531"/>
+    <n v="527"/>
     <x v="0"/>
+    <b v="0"/>
   </r>
   <r>
-    <n v="188"/>
-    <s v="toys/posix/tail.c"/>
+    <n v="35"/>
+    <s v="base64.c"/>
     <s v="cppcheck"/>
     <s v="toybox_0_7_5"/>
-    <s v=" (error) Memory is allocated but not initialized"/>
-    <n v="655"/>
+    <s v=" (error) Expression 'this.base64.columns&amp;&amp;++*x==this.base64.columns' depends on order of evaluation of side effects"/>
+    <n v="487"/>
     <x v="0"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <s v="blockdev.c"/>
+    <s v="cppcheck"/>
+    <s v="toybox_0_7_5"/>
+    <s v=" (error) Array 'cmds[11]' accessed at index 31, which is out of bounds."/>
+    <n v="491"/>
+    <x v="0"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="586"/>
+    <s v="bzcat.c"/>
+    <s v="cppcheck"/>
+    <s v="toybox_0_7_5"/>
+    <s v=" (error) Possible null pointer dereference"/>
+    <n v="694"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="24"/>
+    <s v="chvt.c"/>
+    <s v="cppcheck"/>
+    <s v="toybox_0_7_5"/>
+    <s v=" (error) Uninitialized variable"/>
+    <n v="520"/>
+    <x v="0"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <n v="343"/>
+    <s v="cp.c"/>
+    <s v="cppcheck"/>
+    <s v="toybox_0_7_5"/>
+    <s v=" (error) Null pointer dereference"/>
+    <n v="406"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="409"/>
+    <s v="cp.c"/>
+    <s v="cppcheck"/>
+    <s v="toybox_0_7_5"/>
+    <s v=" (error) Null pointer dereference"/>
+    <n v="406"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="137"/>
+    <s v="date.c"/>
+    <s v="cppcheck"/>
+    <s v="toybox_0_7_5"/>
+    <s v=" (error) Uninitialized variable"/>
+    <n v="516"/>
+    <x v="0"/>
+    <b v="1"/>
   </r>
   <r>
     <n v="89"/>
-    <s v="toys/other/hwclock.c"/>
+    <s v="hwclock.c"/>
     <s v="cppcheck"/>
     <s v="toybox_0_7_5"/>
     <s v=" (error) Uninitialized variable"/>
-    <n v="466"/>
+    <n v="474"/>
     <x v="0"/>
+    <b v="1"/>
   </r>
   <r>
-    <n v="49"/>
-    <s v="toys/other/switch_root.c"/>
+    <n v="96"/>
+    <s v="hwclock.c"/>
+    <s v="cppcheck"/>
+    <s v="toybox_0_7_5"/>
+    <s v=" (error) Memory pointed to by 's' is freed twice."/>
+    <n v="474"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="89"/>
+    <s v="kill.c"/>
+    <s v="cppcheck"/>
+    <s v="toybox_0_7_5"/>
+    <s v=" (error) Null pointer dereference"/>
+    <n v="341"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="975"/>
+    <s v="lib.c"/>
+    <s v="cppcheck"/>
+    <s v="toybox_0_7_5"/>
+    <s v=" (error) Buffer is accessed out of bounds"/>
+    <n v="1000"/>
+    <x v="1"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <s v="losetup.c"/>
     <s v="cppcheck"/>
     <s v="toybox_0_7_5"/>
     <s v=" (error) Uninitialized variable"/>
-    <n v="486"/>
+    <n v="536"/>
     <x v="0"/>
-  </r>
-  <r>
-    <n v="975"/>
-    <s v="lib/lib.c"/>
-    <s v="cppcheck"/>
-    <s v="toybox_0_7_5"/>
-    <s v=" (error) Buffer is accessed out of bounds"/>
-    <n v="986"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="29"/>
-    <s v="toys/posix/uudecode.c"/>
-    <s v="cppcheck"/>
-    <s v="toybox_0_7_5"/>
-    <s v=" (error) Uninitialized variable"/>
-    <n v="485"/>
-    <x v="0"/>
+    <b v="1"/>
   </r>
   <r>
     <n v="63"/>
-    <s v="./lib/lsm.h"/>
+    <s v="lsm.h"/>
     <s v="cppcheck"/>
     <s v="toybox_0_7_5"/>
     <s v=" (error) Uninitialized variable"/>
     <n v="4"/>
     <x v="0"/>
+    <b v="0"/>
   </r>
   <r>
-    <n v="137"/>
-    <s v="toys/posix/date.c"/>
+    <n v="86"/>
+    <s v="main.c"/>
+    <s v="cppcheck"/>
+    <s v="toybox_0_7_5"/>
+    <s v=" (error) Null pointer dereference"/>
+    <n v="563"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="118"/>
+    <s v="netstat.c"/>
+    <s v="cppcheck"/>
+    <s v="toybox_0_7_5"/>
+    <s v=" (error) Resource leak"/>
+    <n v="522"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="49"/>
+    <s v="switch_root.c"/>
     <s v="cppcheck"/>
     <s v="toybox_0_7_5"/>
     <s v=" (error) Uninitialized variable"/>
-    <n v="511"/>
+    <n v="493"/>
     <x v="0"/>
+    <b v="1"/>
   </r>
   <r>
-    <n v="24"/>
-    <s v="toys/other/chvt.c"/>
+    <n v="188"/>
+    <s v="tail.c"/>
+    <s v="cppcheck"/>
+    <s v="toybox_0_7_5"/>
+    <s v=" (error) Memory is allocated but not initialized"/>
+    <n v="665"/>
+    <x v="0"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <s v="uudecode.c"/>
     <s v="cppcheck"/>
     <s v="toybox_0_7_5"/>
     <s v=" (error) Uninitialized variable"/>
-    <n v="512"/>
+    <n v="494"/>
     <x v="0"/>
+    <b v="1"/>
   </r>
   <r>
-    <n v="96"/>
-    <s v="toys/other/hwclock.c"/>
-    <s v="cppcheck"/>
-    <s v="toybox_0_7_5"/>
-    <s v=" (error) Memory pointed to by 's' is freed twice."/>
-    <n v="466"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="35"/>
-    <s v="toys/other/base64.c"/>
-    <s v="cppcheck"/>
-    <s v="toybox_0_7_5"/>
-    <s v=" (error) Expression 'this.base64.columns&amp;&amp;++*x==this.base64.columns' depends on order of evaluation of side effects"/>
-    <n v="478"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="63"/>
-    <s v="lib/lsm.h"/>
+    <n v="51"/>
+    <s v="vmstat.c"/>
     <s v="cppcheck"/>
     <s v="toybox_0_7_5"/>
     <s v=" (error) Uninitialized variable"/>
-    <n v="4"/>
+    <n v="517"/>
     <x v="0"/>
-  </r>
-  <r>
-    <n v="83"/>
-    <s v="toys/posix/cmp.c"/>
-    <s v="cppcheck"/>
-    <s v="toybox_0_7_5"/>
-    <s v=" (error) Signed integer overflow for expression '(2147483648)*!(toys.optflags&amp;(1))'."/>
-    <n v="501"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="51"/>
-    <s v="toys/other/vmstat.c"/>
-    <s v="cppcheck"/>
-    <s v="toybox_0_7_5"/>
-    <s v=" (error) Uninitialized variable"/>
-    <n v="508"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="309"/>
-    <s v="lib/args.c"/>
-    <s v="cppcheck"/>
-    <s v="toybox_0_7_5"/>
-    <s v=" (error) Uninitialized variable"/>
-    <n v="519"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="118"/>
-    <s v="toys/net/netstat.c"/>
-    <s v="cppcheck"/>
-    <s v="toybox_0_7_5"/>
-    <s v=" (error) Resource leak"/>
-    <n v="515"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="60"/>
-    <s v="toys/other/blockdev.c"/>
-    <s v="cppcheck"/>
-    <s v="toybox_0_7_5"/>
-    <s v=" (error) Array 'cmds[11]' accessed at index 31, which is out of bounds."/>
-    <n v="482"/>
-    <x v="0"/>
+    <b v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
+  <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -911,6 +974,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="6"/>
@@ -954,21 +1018,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G19" totalsRowCount="1">
-  <autoFilter ref="A1:G18"/>
-  <sortState ref="A2:G18">
-    <sortCondition descending="1" ref="F1:F18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H22" totalsRowCount="1">
+  <autoFilter ref="A1:H21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H21">
+    <sortCondition descending="1" ref="F1:F21"/>
   </sortState>
-  <tableColumns count="7">
+  <tableColumns count="8">
     <tableColumn id="1" name="line"/>
     <tableColumn id="2" name="filename"/>
     <tableColumn id="3" name="tool"/>
     <tableColumn id="4" name="target"/>
     <tableColumn id="5" name="type"/>
     <tableColumn id="6" name="num_configs" totalsRowFunction="custom">
-      <totalsRowFormula>MEDIAN(F3:F18)</totalsRowFormula>
+      <totalsRowFormula>MEDIAN(F3:F21)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" name="variability"/>
+    <tableColumn id="8" name="classification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1286,43 +1351,43 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="4">
-        <v>5.8823529411764705E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4">
-        <v>0.94117647058823528</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -1335,19 +1400,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1369,402 +1435,513 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>975</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>986</v>
+        <v>1000</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>586</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>694</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>188</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>665</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>563</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F6">
+        <v>536</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>309</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>655</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>527</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>531</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>309</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>522</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="F5">
-        <v>519</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>118</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>520</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <v>515</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>517</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>137</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>512</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>137</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>511</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>508</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>83</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10">
-        <v>501</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11">
-        <v>486</v>
+        <v>516</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>494</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="F12">
-        <v>485</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>493</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>60</v>
       </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13">
-        <v>482</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>491</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>487</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>474</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
         <v>23</v>
       </c>
-      <c r="F14">
-        <v>478</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="F17">
+        <v>474</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>343</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>406</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>409</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>406</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>89</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D20" t="s">
         <v>10</v>
       </c>
-      <c r="F15">
-        <v>466</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>96</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>341</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16">
-        <v>466</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D21" t="s">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21">
         <v>4</v>
       </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F19">
-        <f>MEDIAN(F3:F18)</f>
-        <v>493.5</v>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <f>MEDIAN(F3:F21)</f>
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/deduplicate_project/results/excel/toybox_0_7_5_cppcheck.xlsx
+++ b/scripts/deduplicate_project/results/excel/toybox_0_7_5_cppcheck.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hothost/Documents/git/kconfig_case_studies/scripts/deduplicate_project/results/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austin/Documents/kconfig_case_studies/scripts/deduplicate_project/results/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A57D20EA-44C6-A04B-BC42-C3A326D6B798}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C673ABFF-EF56-2F49-B8FA-C018860E4067}" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="13860" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,15 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
   <si>
     <t>line</t>
   </si>
@@ -161,13 +163,34 @@
   </si>
   <si>
     <t>Count of variability2</t>
+  </si>
+  <si>
+    <t>manual_features</t>
+  </si>
+  <si>
+    <t>CONFIG_CHVT</t>
+  </si>
+  <si>
+    <t>CONFIG_DATE</t>
+  </si>
+  <si>
+    <t>num_manual_features</t>
+  </si>
+  <si>
+    <t>CONFIG_HWCLOCK</t>
+  </si>
+  <si>
+    <t>CONFIG_LOSETUP</t>
+  </si>
+  <si>
+    <t>CONFIG_VMSTAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -711,7 +734,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Wei, Shiyi" refreshedDate="43512.8106275463" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wei, Shiyi" refreshedDate="43512.8106275463" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20" xr:uid="{00000000-000A-0000-FFFF-FFFF11000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -958,7 +981,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -1018,22 +1041,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H22" totalsRowCount="1">
-  <autoFilter ref="A1:H21"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H21">
-    <sortCondition descending="1" ref="F1:F21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J22" totalsRowCount="1">
+  <autoFilter ref="A1:J21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
+    <sortCondition ref="B1:B21"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" name="line"/>
-    <tableColumn id="2" name="filename"/>
-    <tableColumn id="3" name="tool"/>
-    <tableColumn id="4" name="target"/>
-    <tableColumn id="5" name="type"/>
-    <tableColumn id="6" name="num_configs" totalsRowFunction="custom">
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="line"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="filename"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="tool"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="target"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="type"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="num_configs" totalsRowFunction="custom">
       <totalsRowFormula>MEDIAN(F3:F21)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="variability"/>
-    <tableColumn id="8" name="classification"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="variability"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="classification"/>
+    <tableColumn id="9" xr3:uid="{1C921B7F-4CC4-6C4A-8D5C-D4BDA000B857}" name="manual_features"/>
+    <tableColumn id="10" xr3:uid="{46387948-DF9A-B742-AF8C-67440D976D8C}" name="num_manual_features"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1335,21 +1360,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -1360,7 +1385,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
@@ -1371,7 +1396,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -1382,7 +1407,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
@@ -1399,21 +1424,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1438,13 +1463,19 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
-        <v>975</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1453,24 +1484,24 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>1000</v>
+        <v>527</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3">
-        <v>586</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1479,21 +1510,24 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>694</v>
+        <v>487</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
-        <v>188</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1502,10 +1536,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>665</v>
+        <v>491</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -1514,12 +1548,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5">
-        <v>86</v>
+        <v>586</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1528,21 +1562,24 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>563</v>
+        <v>694</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1554,7 +1591,7 @@
         <v>11</v>
       </c>
       <c r="F6">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -1562,13 +1599,19 @@
       <c r="H6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1577,10 +1620,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>527</v>
+        <v>406</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1589,12 +1632,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8">
-        <v>118</v>
+        <v>409</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1603,21 +1646,24 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>522</v>
+        <v>406</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1629,7 +1675,7 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -1637,13 +1683,19 @@
       <c r="H9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1655,7 +1707,7 @@
         <v>11</v>
       </c>
       <c r="F10">
-        <v>517</v>
+        <v>474</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1663,13 +1715,19 @@
       <c r="H10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1678,24 +1736,24 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F11">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1704,24 +1762,24 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F12">
-        <v>494</v>
+        <v>341</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
-        <v>49</v>
+        <v>975</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -1730,24 +1788,24 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F13">
-        <v>493</v>
+        <v>1000</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -1756,24 +1814,30 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F14">
-        <v>491</v>
+        <v>536</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -1782,10 +1846,10 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F15">
-        <v>487</v>
+        <v>4</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -1794,12 +1858,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -1808,24 +1872,24 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F16">
-        <v>474</v>
+        <v>563</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -1834,21 +1898,24 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F17">
-        <v>474</v>
+        <v>522</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
-        <v>343</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -1857,21 +1924,30 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F18">
-        <v>406</v>
+        <v>493</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
-        <v>409</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -1880,21 +1956,24 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F19">
-        <v>406</v>
+        <v>665</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -1903,21 +1982,24 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F20">
-        <v>341</v>
+        <v>494</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -1929,16 +2011,22 @@
         <v>11</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>517</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="F22">
         <f>MEDIAN(F3:F21)</f>
         <v>494</v>
